--- a/wordCount.xlsx
+++ b/wordCount.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -30,6 +30,10 @@
       <name val="宋体"/>
       <sz val="14.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -78,19 +82,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
       <protection locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,6 +113,86 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>机器人</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>image classification</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>gan</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ai</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>智能</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wordCount.xlsx
+++ b/wordCount.xlsx
@@ -120,43 +120,43 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>image classification</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>ai</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>image classification</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>gan</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -166,21 +166,21 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>ai</t>
+          <t>Drone</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>neural network</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -190,7 +190,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
